--- a/acceptance_test_plan.xlsx
+++ b/acceptance_test_plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mserr\Documents\GitHub\P5-Web-Dev-Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45E1A480-BC70-4E61-943E-84FC2661B998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59658E67-412B-4A7D-BC18-0D44975A4090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Feature</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Display all the products</t>
   </si>
   <si>
-    <t>OK / Error description</t>
-  </si>
-  <si>
     <t>...</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Confirmation page generates after order is placed.</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -387,9 +387,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -399,24 +396,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -428,6 +422,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +647,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -676,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -689,187 +686,197 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.5">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.5">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.5">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.5">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.5">
-      <c r="A7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="E7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A18" s="17"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
